--- a/documentation/use-cases/function points/fp.xlsx
+++ b/documentation/use-cases/function points/fp.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/206af8f1d21b1262/DHBW/Software Eng/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sven\OneDrive\DHBW\Software Eng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28E126F9-6571-4D87-B8F7-9DE9D138DBDF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{28E126F9-6571-4D87-B8F7-9DE9D138DBDF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{FE4C3F6A-A98D-4750-A98C-2452B6288FDE}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{582D44CA-98B9-45AB-A41B-F409CEF19E5E}"/>
   </bookViews>
@@ -193,15 +193,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Function Points</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>implemented Use-Case</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -350,15 +342,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Function Points</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>new Use-Case</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -688,6 +672,49 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1293,15 +1320,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>471486</xdr:colOff>
+      <xdr:colOff>423861</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>171449</xdr:colOff>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1629,7 +1656,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
